--- a/data/trans_orig/P1804_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>30763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20901</v>
+        <v>21499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42730</v>
+        <v>43439</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07169379573944866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04871009572365671</v>
+        <v>0.05010394241316195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09958180789355464</v>
+        <v>0.10123431761804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -763,19 +763,19 @@
         <v>46006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32712</v>
+        <v>34385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59689</v>
+        <v>61870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1325611681738735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09425484693655296</v>
+        <v>0.09907586315380083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1719862148877412</v>
+        <v>0.1782705853372658</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -784,19 +784,19 @@
         <v>76769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61068</v>
+        <v>60776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95706</v>
+        <v>95211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09891070505020121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07868095366822159</v>
+        <v>0.07830506959550691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1233092618040259</v>
+        <v>0.1226713044240487</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>398329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386362</v>
+        <v>385653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408191</v>
+        <v>407593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9283062042605513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9004181921064454</v>
+        <v>0.89876568238196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9512899042763433</v>
+        <v>0.949896057586838</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -834,19 +834,19 @@
         <v>301049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287366</v>
+        <v>285185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314343</v>
+        <v>312670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8674388318261266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.828013785112259</v>
+        <v>0.8217294146627342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9057451530634472</v>
+        <v>0.9009241368461991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>658</v>
@@ -855,19 +855,19 @@
         <v>699378</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>680441</v>
+        <v>680936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>715079</v>
+        <v>715371</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9010892949497988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8766907381959741</v>
+        <v>0.8773286955759513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9213190463317786</v>
+        <v>0.9216949304044931</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>17737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10995</v>
+        <v>10510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28834</v>
+        <v>26513</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04701958891714694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02914796292028348</v>
+        <v>0.02786150831846791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07643733649090648</v>
+        <v>0.07028271860947095</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -980,19 +980,19 @@
         <v>38696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27854</v>
+        <v>27581</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53582</v>
+        <v>53671</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1039439248260649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0748227631288723</v>
+        <v>0.07408798060541437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1439318950334338</v>
+        <v>0.144170638687886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -1001,19 +1001,19 @@
         <v>56433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42569</v>
+        <v>42800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74098</v>
+        <v>72568</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07529363979650844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05679646826245312</v>
+        <v>0.05710420521134744</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09886278302213937</v>
+        <v>0.09682194761477088</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>359490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>348393</v>
+        <v>350714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366232</v>
+        <v>366717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.952980411082853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9235626635090933</v>
+        <v>0.9297172813905289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708520370797165</v>
+        <v>0.972138491681532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -1051,19 +1051,19 @@
         <v>333577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318691</v>
+        <v>318602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344419</v>
+        <v>344692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.896056075173935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8560681049665659</v>
+        <v>0.8558293613121135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9251772368711275</v>
+        <v>0.9259120193945856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -1072,19 +1072,19 @@
         <v>693067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>675402</v>
+        <v>676932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706931</v>
+        <v>706700</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9247063602034915</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9011372169778609</v>
+        <v>0.9031780523852287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.943203531737547</v>
+        <v>0.9428957947886524</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>32851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22266</v>
+        <v>23253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44654</v>
+        <v>45288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06294260036297761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04266259879762675</v>
+        <v>0.04455322059033214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08555820059924815</v>
+        <v>0.08677231527452453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1197,19 +1197,19 @@
         <v>19783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12345</v>
+        <v>12475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29281</v>
+        <v>29262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1190864886312649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07431187079423178</v>
+        <v>0.07509410002164651</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.176259020903517</v>
+        <v>0.1761472803879328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1218,19 +1218,19 @@
         <v>52634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39634</v>
+        <v>39950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66363</v>
+        <v>67288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07649824780839638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05760470783075843</v>
+        <v>0.05806349999167455</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09645306483140571</v>
+        <v>0.09779700894928617</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>489063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>477260</v>
+        <v>476626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499648</v>
+        <v>498661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9370573996370224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9144417994007519</v>
+        <v>0.9132276847254756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9573374012023734</v>
+        <v>0.9554467794096679</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1268,19 +1268,19 @@
         <v>146340</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136842</v>
+        <v>136861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153778</v>
+        <v>153648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8809135113687352</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8237409790964833</v>
+        <v>0.8238527196120672</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9256881292057683</v>
+        <v>0.9249058999783535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>604</v>
@@ -1289,19 +1289,19 @@
         <v>635402</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621673</v>
+        <v>620748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648402</v>
+        <v>648086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9235017521916036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9035469351685945</v>
+        <v>0.9022029910507139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9423952921692417</v>
+        <v>0.9419365000083257</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>80282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64779</v>
+        <v>64827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97748</v>
+        <v>99321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06983281748882264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05634745786946985</v>
+        <v>0.05638877042406024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08502517550295938</v>
+        <v>0.08639297773467638</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1414,19 +1414,19 @@
         <v>84030</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67659</v>
+        <v>67030</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102117</v>
+        <v>102049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1017460211935079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0819240877377818</v>
+        <v>0.08116278639019804</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1236469831588764</v>
+        <v>0.12356488465917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -1435,19 +1435,19 @@
         <v>164312</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140981</v>
+        <v>141766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187807</v>
+        <v>189952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08317432832832355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07136419947548488</v>
+        <v>0.07176174896348053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09506742812595512</v>
+        <v>0.09615306514687534</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1069356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1051890</v>
+        <v>1050317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1084859</v>
+        <v>1084811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9301671825111774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9149748244970404</v>
+        <v>0.9136070222653236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9436525421305301</v>
+        <v>0.9436112295759398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>718</v>
@@ -1485,19 +1485,19 @@
         <v>741846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>723759</v>
+        <v>723827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758217</v>
+        <v>758846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8982539788064922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8763530168411237</v>
+        <v>0.8764351153408294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9180759122622183</v>
+        <v>0.9188372136098013</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1742</v>
@@ -1506,19 +1506,19 @@
         <v>1811202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1787707</v>
+        <v>1785562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1834533</v>
+        <v>1833748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9168256716716765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9049325718740451</v>
+        <v>0.9038469348531246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9286358005245156</v>
+        <v>0.9282382510365195</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>35629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24814</v>
+        <v>24481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49260</v>
+        <v>49129</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05740092643188545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0399767803683929</v>
+        <v>0.03944096411047928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07936194730331007</v>
+        <v>0.07915063093783904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -1631,19 +1631,19 @@
         <v>71871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56492</v>
+        <v>57308</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89336</v>
+        <v>88952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0973544205079664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07652225629004043</v>
+        <v>0.07762704846188327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1210111683739072</v>
+        <v>0.1204908036449223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1652,19 +1652,19 @@
         <v>107500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87165</v>
+        <v>90103</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128427</v>
+        <v>127910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.079105501459345</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06414163647976634</v>
+        <v>0.06630361506415411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09450441725892125</v>
+        <v>0.09412382750581917</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>585077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>571446</v>
+        <v>571577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>595892</v>
+        <v>596225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9425990735681146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.92063805269669</v>
+        <v>0.9208493690621611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9600232196316072</v>
+        <v>0.9605590358895209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>630</v>
@@ -1702,19 +1702,19 @@
         <v>666373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>648908</v>
+        <v>649292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>681752</v>
+        <v>680936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9026455794920336</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.878988831626093</v>
+        <v>0.8795091963550777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9234777437099596</v>
+        <v>0.9223729515381168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1193</v>
@@ -1723,19 +1723,19 @@
         <v>1251450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1230523</v>
+        <v>1231040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1271785</v>
+        <v>1268847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.920894498540655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9054955827410787</v>
+        <v>0.9058761724941808</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9358583635202337</v>
+        <v>0.9336963849358461</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>16427</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9989</v>
+        <v>9905</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25743</v>
+        <v>25170</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05720817893827551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03478675906837003</v>
+        <v>0.03449305712790323</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08965235203904373</v>
+        <v>0.08765639813543309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1848,19 +1848,19 @@
         <v>91524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73579</v>
+        <v>75502</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114588</v>
+        <v>117003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08458574745793791</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06800137319073664</v>
+        <v>0.06977797904666343</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1059017267641549</v>
+        <v>0.1081330489305904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1869,19 +1869,19 @@
         <v>107951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88771</v>
+        <v>86959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132873</v>
+        <v>130658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0788440674975861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06483529781980336</v>
+        <v>0.06351193579295139</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09704643421207304</v>
+        <v>0.0954283275654651</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>270718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261402</v>
+        <v>261975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277156</v>
+        <v>277240</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9427918210617245</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9103476479609561</v>
+        <v>0.9123436018645669</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.96521324093163</v>
+        <v>0.9655069428720968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>918</v>
@@ -1919,19 +1919,19 @@
         <v>990501</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>967437</v>
+        <v>965022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1008446</v>
+        <v>1006523</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9154142525420621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8940982732358452</v>
+        <v>0.8918669510694096</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9319986268092636</v>
+        <v>0.9302220209533366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1174</v>
@@ -1940,19 +1940,19 @@
         <v>1261219</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1236297</v>
+        <v>1238512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1280399</v>
+        <v>1282211</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9211559325024139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.902953565787927</v>
+        <v>0.904571672434535</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9351647021801966</v>
+        <v>0.9364880642070486</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>213690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>187729</v>
+        <v>188030</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>245889</v>
+        <v>244997</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06311490513721528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05544711100685953</v>
+        <v>0.05553609423705755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07262536586303797</v>
+        <v>0.07236169668391242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>317</v>
@@ -2065,19 +2065,19 @@
         <v>351909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>317461</v>
+        <v>315228</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>390463</v>
+        <v>392898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09964598026110015</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08989159128474265</v>
+        <v>0.08925941618387541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1105627020296532</v>
+        <v>0.1112521153902732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>524</v>
@@ -2086,19 +2086,19 @@
         <v>565599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>518847</v>
+        <v>523026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>613379</v>
+        <v>612494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08176562977763695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0750069585581645</v>
+        <v>0.07561107857226891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08867297421300405</v>
+        <v>0.08854496336169571</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3172032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3139833</v>
+        <v>3140725</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3197993</v>
+        <v>3197692</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9368850948627847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9273746341369621</v>
+        <v>0.9276383033160877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9445528889931404</v>
+        <v>0.9444639057629424</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3009</v>
@@ -2136,19 +2136,19 @@
         <v>3179687</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3141133</v>
+        <v>3138698</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3214135</v>
+        <v>3216368</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9003540197388998</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8894372979703468</v>
+        <v>0.8887478846097269</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9101084087152573</v>
+        <v>0.9107405838161245</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6026</v>
@@ -2157,19 +2157,19 @@
         <v>6351719</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6303939</v>
+        <v>6304824</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6398471</v>
+        <v>6394292</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9182343702223631</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.911327025786996</v>
+        <v>0.9114550366383042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9249930414418355</v>
+        <v>0.924388921427731</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>48713</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36476</v>
+        <v>36163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65990</v>
+        <v>67332</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08847027550021473</v>
+        <v>0.08847027550021472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06624646546973402</v>
+        <v>0.06567754905456508</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.11984652772748</v>
+        <v>0.1222847669296261</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -2524,19 +2524,19 @@
         <v>54535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43751</v>
+        <v>42999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68394</v>
+        <v>67265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1122101427155843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09002016362416211</v>
+        <v>0.0884735384322497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1407259237865359</v>
+        <v>0.1384024683484119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -2545,19 +2545,19 @@
         <v>103248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84443</v>
+        <v>85083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123919</v>
+        <v>123028</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09960039574907656</v>
+        <v>0.09960039574907655</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08145899388280078</v>
+        <v>0.082076482702197</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1195407232966838</v>
+        <v>0.1186811501201231</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>501905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484628</v>
+        <v>483286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>514142</v>
+        <v>514455</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9115297244997853</v>
+        <v>0.9115297244997852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8801534722725201</v>
+        <v>0.8777152330703736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.933753534530266</v>
+        <v>0.9343224509454348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>609</v>
@@ -2595,19 +2595,19 @@
         <v>431474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417615</v>
+        <v>418744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>442258</v>
+        <v>443010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8877898572844157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.859274076213464</v>
+        <v>0.861597531651588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9099798363758381</v>
+        <v>0.9115264615677502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1115</v>
@@ -2616,19 +2616,19 @@
         <v>933379</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>912708</v>
+        <v>913599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>952184</v>
+        <v>951544</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9003996042509237</v>
+        <v>0.9003996042509236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.880459276703316</v>
+        <v>0.8813188498798769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9185410061171988</v>
+        <v>0.917923517297803</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>45011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30929</v>
+        <v>31055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61526</v>
+        <v>63069</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09314898055039102</v>
+        <v>0.093148980550391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06400670253021053</v>
+        <v>0.06426836686923232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1273275125237276</v>
+        <v>0.1305205502321233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -2741,19 +2741,19 @@
         <v>47437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36552</v>
+        <v>36533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60791</v>
+        <v>60125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1121055477979745</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08638318957750625</v>
+        <v>0.08633798163507712</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1436651521571031</v>
+        <v>0.1420907574251549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -2762,19 +2762,19 @@
         <v>92447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74834</v>
+        <v>75807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115064</v>
+        <v>115074</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1019990844945109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08256618421861717</v>
+        <v>0.0836395574292399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1269521621832649</v>
+        <v>0.1269630816763108</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>438201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>421686</v>
+        <v>420143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452283</v>
+        <v>452157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.906851019449609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8726724874762725</v>
+        <v>0.8694794497678766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9359932974697895</v>
+        <v>0.9357316331307678</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>529</v>
@@ -2812,19 +2812,19 @@
         <v>375706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>362352</v>
+        <v>363018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386591</v>
+        <v>386610</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8878944522020255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8563348478428969</v>
+        <v>0.8579092425748452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9136168104224937</v>
+        <v>0.9136620183649236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>969</v>
@@ -2833,19 +2833,19 @@
         <v>813908</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>791291</v>
+        <v>791281</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>831521</v>
+        <v>830548</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8980009155054892</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.873047837816735</v>
+        <v>0.8730369183236892</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9174338157813826</v>
+        <v>0.9163604425707601</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>36552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25180</v>
+        <v>25328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51817</v>
+        <v>51220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07750509264564949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05339050053673931</v>
+        <v>0.05370412104879915</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1098715300847099</v>
+        <v>0.1086052057421731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2958,19 +2958,19 @@
         <v>17470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11286</v>
+        <v>10775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27707</v>
+        <v>27070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09317339066233907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06019177992094755</v>
+        <v>0.05746663483729089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1477706743923618</v>
+        <v>0.1443767651036218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -2979,19 +2979,19 @@
         <v>54022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40652</v>
+        <v>41059</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71307</v>
+        <v>72462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08196226640291157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06167773550283752</v>
+        <v>0.06229499726115906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1081863521473404</v>
+        <v>0.1099396009001837</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>435060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419795</v>
+        <v>420392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446432</v>
+        <v>446284</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9224949073543505</v>
+        <v>0.9224949073543506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.89012846991529</v>
+        <v>0.8913947942578273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9466094994632607</v>
+        <v>0.9462958789512009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -3029,19 +3029,19 @@
         <v>170027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159790</v>
+        <v>160427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176211</v>
+        <v>176722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9068266093376608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8522293256076382</v>
+        <v>0.8556232348963776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9398082200790523</v>
+        <v>0.9425333651627091</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>720</v>
@@ -3050,19 +3050,19 @@
         <v>605087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587802</v>
+        <v>586647</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618457</v>
+        <v>618050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9180377335970884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8918136478526596</v>
+        <v>0.8900603990998169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9383222644971625</v>
+        <v>0.9377050027388411</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>49264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36047</v>
+        <v>35597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70135</v>
+        <v>64801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04352503082656508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03184762260370343</v>
+        <v>0.03145057728532696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06196553051606286</v>
+        <v>0.0572522405211492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -3175,19 +3175,19 @@
         <v>75307</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61737</v>
+        <v>61163</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91520</v>
+        <v>92538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08759650544286854</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07181242651335849</v>
+        <v>0.07114450089986844</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1064555809934273</v>
+        <v>0.1076405396263851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -3196,19 +3196,19 @@
         <v>124570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104068</v>
+        <v>104175</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147937</v>
+        <v>148658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06254958383185419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0522549125571468</v>
+        <v>0.05230860817023704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07428247452441021</v>
+        <v>0.07464461756483867</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1082579</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1061708</v>
+        <v>1067042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1095796</v>
+        <v>1096246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.956474969173435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9380344694839368</v>
+        <v>0.9427477594788506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9681523773962964</v>
+        <v>0.9685494227146729</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1127</v>
@@ -3246,19 +3246,19 @@
         <v>784392</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>768179</v>
+        <v>767161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>797962</v>
+        <v>798536</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9124034945571313</v>
+        <v>0.9124034945571314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8935444190065723</v>
+        <v>0.892359460373615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9281875734866415</v>
+        <v>0.9288554991001322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2194</v>
@@ -3267,19 +3267,19 @@
         <v>1866972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1843605</v>
+        <v>1842884</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1887474</v>
+        <v>1887367</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9374504161681457</v>
+        <v>0.9374504161681458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9257175254755897</v>
+        <v>0.925355382435161</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9477450874428531</v>
+        <v>0.9476913918297629</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>30544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20419</v>
+        <v>19090</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47051</v>
+        <v>48739</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05377783525503769</v>
+        <v>0.05377783525503768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03595098365071273</v>
+        <v>0.03361055011146627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08284079897215002</v>
+        <v>0.08581295161634854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -3392,19 +3392,19 @@
         <v>69639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56184</v>
+        <v>57216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85819</v>
+        <v>87259</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08381649658015412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06762229007561131</v>
+        <v>0.06886459167011116</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1032900146484009</v>
+        <v>0.1050242432746604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -3413,19 +3413,19 @@
         <v>100183</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84059</v>
+        <v>83762</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122013</v>
+        <v>124202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0716198280143935</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06009281446816668</v>
+        <v>0.05988087185284845</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08722618906183162</v>
+        <v>0.08879121770233964</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>537420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>520913</v>
+        <v>519225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547545</v>
+        <v>548874</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9462221647449626</v>
+        <v>0.9462221647449621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9171592010278499</v>
+        <v>0.9141870483836513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9640490163492874</v>
+        <v>0.9663894498885338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1189</v>
@@ -3463,19 +3463,19 @@
         <v>761211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>745031</v>
+        <v>743591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>774666</v>
+        <v>773634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9161835034198459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8967099853515971</v>
+        <v>0.8949757567253391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9323777099243884</v>
+        <v>0.9311354083298885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1709</v>
@@ -3484,19 +3484,19 @@
         <v>1298631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1276801</v>
+        <v>1274612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1314755</v>
+        <v>1315052</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9283801719856065</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.912773810938168</v>
+        <v>0.9112087822976602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9399071855318331</v>
+        <v>0.9401191281471514</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>3778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>598</v>
+        <v>734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14642</v>
+        <v>13589</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01592731098368037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002519911995495882</v>
+        <v>0.003092153336220608</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06172068240816487</v>
+        <v>0.05728349465505017</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -3609,19 +3609,19 @@
         <v>41182</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32374</v>
+        <v>31931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53739</v>
+        <v>53161</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04894654023426995</v>
+        <v>0.04894654023426993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03847752920012317</v>
+        <v>0.03795154837167247</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06387110713157432</v>
+        <v>0.06318399494533719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -3630,19 +3630,19 @@
         <v>44961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35111</v>
+        <v>34883</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59164</v>
+        <v>59100</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04168427579764165</v>
+        <v>0.04168427579764166</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0325528244686598</v>
+        <v>0.03234132621344007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05485286866508358</v>
+        <v>0.05479292168378512</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>233450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222586</v>
+        <v>223639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236630</v>
+        <v>236494</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9840726890163196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9382793175918352</v>
+        <v>0.9427165053449503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9974800880045041</v>
+        <v>0.9969078466637794</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1090</v>
@@ -3680,19 +3680,19 @@
         <v>800190</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>787633</v>
+        <v>788211</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>808998</v>
+        <v>809441</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.95105345976573</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9361288928684256</v>
+        <v>0.9368160050546627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9615224707998764</v>
+        <v>0.9620484516283273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1199</v>
@@ -3701,19 +3701,19 @@
         <v>1033639</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1019436</v>
+        <v>1019500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1043489</v>
+        <v>1043717</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9583157242023581</v>
+        <v>0.9583157242023583</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9451471313349162</v>
+        <v>0.9452070783162152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9674471755313402</v>
+        <v>0.96765867378656</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>213862</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184261</v>
+        <v>183944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248150</v>
+        <v>250069</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06212449954037876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05352578406589123</v>
+        <v>0.05343349248071508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07208477546370873</v>
+        <v>0.07264228203729658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>429</v>
@@ -3826,19 +3826,19 @@
         <v>305569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>275007</v>
+        <v>277133</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334426</v>
+        <v>337200</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08421205808110852</v>
+        <v>0.08421205808110849</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07578940529908307</v>
+        <v>0.07637536874922611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09216462367182811</v>
+        <v>0.0929291390686474</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>633</v>
@@ -3847,19 +3847,19 @@
         <v>519431</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>477682</v>
+        <v>476225</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>565553</v>
+        <v>568432</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07345892520951387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06755461476690972</v>
+        <v>0.06734866383481056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07998152397193177</v>
+        <v>0.0803887398571501</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3228614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3194326</v>
+        <v>3192407</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3258215</v>
+        <v>3258532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9378755004596214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9279152245362912</v>
+        <v>0.9273577179627034</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9464742159341087</v>
+        <v>0.9465665075192848</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4810</v>
@@ -3897,19 +3897,19 @@
         <v>3323000</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3294143</v>
+        <v>3291369</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3353562</v>
+        <v>3351436</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9157879419188916</v>
+        <v>0.9157879419188915</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9078353763281719</v>
+        <v>0.9070708609313528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.924210594700917</v>
+        <v>0.9236246312507739</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7906</v>
@@ -3918,19 +3918,19 @@
         <v>6551614</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6505492</v>
+        <v>6502613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6593363</v>
+        <v>6594820</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9265410747904861</v>
+        <v>0.9265410747904862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9200184760280683</v>
+        <v>0.9196112601428498</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9324453852330905</v>
+        <v>0.9326513361651895</v>
       </c>
     </row>
     <row r="24">
